--- a/Lab2/Лист Microsoft Excel (2).xlsx
+++ b/Lab2/Лист Microsoft Excel (2).xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -47,16 +52,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -73,10 +78,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -111,7 +116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +151,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -240,21 +245,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -271,7 +276,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -323,20 +328,357 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2.666666666666666</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2.8333333333333326</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2.999999999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.1666666666666656</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.333333333333332</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.4999999999999987</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.666666666666665</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.8333333333333317</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.9999999999999982</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.166666666666665</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4.333333333333332</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4.499999999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4.666666666666666</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5.333333333333334</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5.500000000000001</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5.666666666666668</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5.833333333333335</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6.000000000000002</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6.166666666666669</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6.333333333333336</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6.500000000000003</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6.66666666666667</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6.833333333333337</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>